--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d25c74717d7371b/Academic/College/İTÜ/1. Semester/BLG 317E Database Systems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d25c74717d7371b/Academic/College/İTÜ/1. Semester/BLG 317E Database Systems/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="11_44AE59D8B33160A49A554B18B2BCA8A43B6A6290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A695815F-EA32-7D48-9087-EE3768C4968D}"/>
+  <xr:revisionPtr revIDLastSave="468" documentId="11_44AE59D8B33160A49A554B18B2BCA8A43B6A6290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD98710-BB37-7644-B3A4-7DC5F07E7C64}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="148">
   <si>
     <t>TABLES</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>AwardCoaches</t>
+  </si>
+  <si>
+    <t>Bootstrap 5.0, Vanilla CSS</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2028,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2319,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E88523-62F7-4F69-950E-F406F50A376B}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d25c74717d7371b/Academic/College/İTÜ/1. Semester/BLG 317E Database Systems/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="468" documentId="11_44AE59D8B33160A49A554B18B2BCA8A43B6A6290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DD98710-BB37-7644-B3A4-7DC5F07E7C64}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="11_44AE59D8B33160A49A554B18B2BCA8A43B6A6290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDD7EFAE-6FBA-B34B-8BAC-530D7BE9E3A5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="148">
   <si>
     <t>TABLES</t>
   </si>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1478,8 +1478,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="13"/>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1489,8 +1491,12 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1504,8 +1510,8 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,8 +1529,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="16"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1542,8 +1550,12 @@
         <v>21</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,8 +1573,12 @@
         <v>23</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1580,8 +1596,12 @@
         <v>23</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1595,8 +1615,12 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,8 +1634,12 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="G11" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1621,8 +1649,12 @@
       <c r="D12" s="10"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1636,8 +1668,12 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,8 +1691,10 @@
         <v>33</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1674,8 +1712,12 @@
         <v>38</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,8 +1731,12 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1700,8 +1746,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1719,8 +1764,12 @@
         <v>40</v>
       </c>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,8 +1787,12 @@
         <v>40</v>
       </c>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1757,8 +1810,12 @@
         <v>43</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,8 +1833,12 @@
         <v>40</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -2322,8 +2383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E88523-62F7-4F69-950E-F406F50A376B}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
